--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/two-screens-two-plates-four-wells.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/two-screens-two-plates-four-wells.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBECA8-3D10-405B-BA7C-8319E3319419}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D517F-F03C-4BAB-8BB9-52D63560F25F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,7 @@
     <sheet name="Channel" sheetId="23" r:id="rId11"/>
     <sheet name="Color" sheetId="24" r:id="rId12"/>
     <sheet name="Binary_Data" sheetId="25" r:id="rId13"/>
-    <sheet name="Unit" sheetId="26" r:id="rId14"/>
-    <sheet name="size" sheetId="27" r:id="rId15"/>
+    <sheet name="size" sheetId="27" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="426">
   <si>
     <t/>
   </si>
@@ -1085,18 +1084,6 @@
   </si>
   <si>
     <t>[size:10000um]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1107,63 +1094,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1191,10 +1121,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1222,10 +1148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1599,6 +1521,17 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1606,7 +1539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1635,13 +1568,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1675,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1695,9 +1621,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2025,14 +1948,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +1971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2056,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +1987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +1995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -2088,7 +2011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -2096,39 +2019,39 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>191</v>
       </c>
@@ -2136,7 +2059,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -2144,7 +2067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -2152,7 +2075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
@@ -2160,7 +2083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>281</v>
       </c>
@@ -2168,12 +2091,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>306</v>
+        <v>424</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2188,21 +2111,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2246,7 +2169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2264,7 +2187,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2276,37 +2199,37 @@
         <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2320,7 +2243,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>287</v>
@@ -2344,18 +2267,18 @@
         <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
         <v>285</v>
@@ -2391,12 +2314,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
         <v>285</v>
@@ -2432,12 +2355,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
         <v>285</v>
@@ -2473,12 +2396,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
         <v>285</v>
@@ -2514,12 +2437,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
         <v>285</v>
@@ -2555,12 +2478,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D10" t="s">
         <v>285</v>
@@ -2596,12 +2519,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="D11" t="s">
         <v>285</v>
@@ -2637,12 +2560,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D12" t="s">
         <v>285</v>
@@ -2678,12 +2601,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D13" t="s">
         <v>285</v>
@@ -2719,12 +2642,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
         <v>285</v>
@@ -2760,12 +2683,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D15" t="s">
         <v>285</v>
@@ -2801,12 +2724,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="D16" t="s">
         <v>285</v>
@@ -2842,12 +2765,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
         <v>285</v>
@@ -2883,12 +2806,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
         <v>285</v>
@@ -2924,12 +2847,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
         <v>285</v>
@@ -2965,12 +2888,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="D20" t="s">
         <v>285</v>
@@ -3006,12 +2929,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D21" t="s">
         <v>285</v>
@@ -3047,12 +2970,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D22" t="s">
         <v>285</v>
@@ -3088,12 +3011,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D23" t="s">
         <v>285</v>
@@ -3129,12 +3052,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D24" t="s">
         <v>285</v>
@@ -3170,12 +3093,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D25" t="s">
         <v>285</v>
@@ -3211,12 +3134,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D26" t="s">
         <v>285</v>
@@ -3264,16 +3187,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3295,7 +3218,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3307,7 +3230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3321,243 +3244,243 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>117</v>
@@ -3575,15 +3498,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3594,14 +3517,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3610,7 +3533,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +3544,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
@@ -3641,17 +3564,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3668,7 +3591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3677,7 +3600,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3692,7 +3615,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3706,10 +3629,10 @@
         <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
@@ -3723,7 +3646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
@@ -3737,7 +3660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>196</v>
       </c>
@@ -3751,7 +3674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>198</v>
       </c>
@@ -3765,7 +3688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>263</v>
       </c>
@@ -3779,7 +3702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>264</v>
       </c>
@@ -3793,7 +3716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>265</v>
       </c>
@@ -3807,7 +3730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>266</v>
       </c>
@@ -3821,7 +3744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>267</v>
       </c>
@@ -3835,7 +3758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>268</v>
       </c>
@@ -3849,7 +3772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>269</v>
       </c>
@@ -3863,7 +3786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>270</v>
       </c>
@@ -3877,7 +3800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>271</v>
       </c>
@@ -3891,7 +3814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>272</v>
       </c>
@@ -3905,7 +3828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>273</v>
       </c>
@@ -3919,7 +3842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>274</v>
       </c>
@@ -3933,7 +3856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>275</v>
       </c>
@@ -3947,7 +3870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>276</v>
       </c>
@@ -3961,7 +3884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>277</v>
       </c>
@@ -3975,7 +3898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>278</v>
       </c>
@@ -3989,7 +3912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>279</v>
       </c>
@@ -4003,7 +3926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>280</v>
       </c>
@@ -4024,154 +3947,51 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAC3254-1C00-46B8-9956-3058472C1E83}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671C7775-7422-47D7-A053-2F84021F912F}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4180,10 +4000,10 @@
         <v>201</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4194,18 +4014,18 @@
         <v>192</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
+      <c r="D5" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4221,19 +4041,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4256,7 +4076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4271,7 +4091,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4292,7 +4112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4315,12 +4135,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>115</v>
@@ -4332,7 +4152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>113</v>
       </c>
@@ -4343,7 +4163,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>113</v>
       </c>
@@ -4351,7 +4171,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>113</v>
       </c>
@@ -4359,12 +4179,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>152</v>
@@ -4376,10 +4196,10 @@
         <v>153</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>114</v>
       </c>
@@ -4387,7 +4207,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
@@ -4395,7 +4215,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>114</v>
       </c>
@@ -4415,18 +4235,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4449,7 +4269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4460,7 +4280,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4481,7 +4301,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4504,12 +4324,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>119</v>
@@ -4524,7 +4344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
@@ -4532,12 +4352,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>124</v>
@@ -4552,7 +4372,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
@@ -4560,12 +4380,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>131</v>
@@ -4580,7 +4400,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
@@ -4588,7 +4408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
@@ -4596,7 +4416,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
@@ -4604,7 +4424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>130</v>
       </c>
@@ -4612,12 +4432,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
@@ -4632,7 +4452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
@@ -4640,12 +4460,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>158</v>
@@ -4660,7 +4480,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>153</v>
       </c>
@@ -4668,12 +4488,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>160</v>
@@ -4688,7 +4508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>154</v>
       </c>
@@ -4696,12 +4516,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>166</v>
@@ -4716,7 +4536,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>155</v>
       </c>
@@ -4725,7 +4545,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>155</v>
       </c>
@@ -4734,7 +4554,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
@@ -4743,7 +4563,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
@@ -4752,12 +4572,12 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>171</v>
@@ -4772,7 +4592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>156</v>
       </c>
@@ -4792,17 +4612,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4819,7 +4639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4828,7 +4648,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4843,7 +4663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4860,12 +4680,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>118</v>
@@ -4874,12 +4694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>126</v>
@@ -4888,12 +4708,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>127</v>
@@ -4902,12 +4722,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>128</v>
@@ -4916,12 +4736,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>136</v>
@@ -4930,12 +4750,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>137</v>
@@ -4944,12 +4764,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>138</v>
@@ -4958,12 +4778,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>139</v>
@@ -4972,12 +4792,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>140</v>
@@ -4986,12 +4806,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>144</v>
@@ -5000,12 +4820,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>145</v>
@@ -5014,12 +4834,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>162</v>
@@ -5028,12 +4848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>163</v>
@@ -5042,12 +4862,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>164</v>
@@ -5056,12 +4876,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>165</v>
@@ -5070,12 +4890,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>173</v>
@@ -5084,12 +4904,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>174</v>
@@ -5098,12 +4918,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>175</v>
@@ -5112,12 +4932,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>176</v>
@@ -5126,12 +4946,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>177</v>
@@ -5140,12 +4960,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>178</v>
@@ -5154,12 +4974,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>179</v>
@@ -5180,17 +5000,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5210,7 +5030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5220,7 +5040,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5238,7 +5058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5258,12 +5078,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>148</v>
@@ -5275,7 +5095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>146</v>
       </c>
@@ -5286,7 +5106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>146</v>
       </c>
@@ -5297,7 +5117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>146</v>
       </c>
@@ -5308,12 +5128,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>149</v>
@@ -5325,7 +5145,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>147</v>
       </c>
@@ -5336,7 +5156,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>147</v>
       </c>
@@ -5347,7 +5167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>147</v>
       </c>
@@ -5358,12 +5178,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>149</v>
@@ -5375,9 +5195,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -5385,9 +5205,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -5395,9 +5215,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -5417,18 +5237,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5448,7 +5268,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5460,7 +5280,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5478,7 +5298,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5498,12 +5318,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>113</v>
@@ -5512,7 +5332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>180</v>
       </c>
@@ -5520,12 +5340,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>184</v>
@@ -5550,15 +5370,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5569,14 +5389,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5585,7 +5405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5596,7 +5416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>181</v>
       </c>
@@ -5604,7 +5424,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>183</v>
       </c>
@@ -5624,15 +5444,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5643,14 +5463,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5659,7 +5479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5670,20 +5490,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5698,18 +5518,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5729,7 +5549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5741,7 +5561,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5759,7 +5579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5779,12 +5599,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>187</v>
@@ -5796,12 +5616,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>189</v>
@@ -5813,12 +5633,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>203</v>
@@ -5830,12 +5650,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>204</v>
@@ -5847,12 +5667,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>205</v>
@@ -5864,12 +5684,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>206</v>
@@ -5881,12 +5701,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>207</v>
@@ -5898,12 +5718,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>208</v>
@@ -5915,12 +5735,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>209</v>
@@ -5932,12 +5752,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>210</v>
@@ -5949,12 +5769,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>211</v>
@@ -5966,12 +5786,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>212</v>
@@ -5983,12 +5803,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>213</v>
@@ -6000,12 +5820,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>214</v>
@@ -6017,12 +5837,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>215</v>
@@ -6034,12 +5854,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>216</v>
@@ -6051,12 +5871,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>217</v>
@@ -6068,12 +5888,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>218</v>
@@ -6085,12 +5905,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>219</v>
@@ -6102,12 +5922,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>220</v>
@@ -6119,12 +5939,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>221</v>
@@ -6136,12 +5956,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>222</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/two-screens-two-plates-four-wells.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/two-screens-two-plates-four-wells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D517F-F03C-4BAB-8BB9-52D63560F25F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A72B4-0F9D-4495-8CFF-3AD707A635B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Plate" sheetId="3" r:id="rId2"/>
     <sheet name="Well" sheetId="15" r:id="rId3"/>
     <sheet name="Well_Sample" sheetId="16" r:id="rId4"/>
-    <sheet name="Plate_Acquision" sheetId="17" r:id="rId5"/>
+    <sheet name="Plate_Acquisition" sheetId="17" r:id="rId5"/>
     <sheet name="Screen" sheetId="18" r:id="rId6"/>
     <sheet name="Reagent_Set" sheetId="19" r:id="rId7"/>
     <sheet name="Reagent" sheetId="20" r:id="rId8"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="463">
   <si>
     <t/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
-  </si>
-  <si>
     <t>owl</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>end time</t>
   </si>
   <si>
-    <t>Plate Acquision</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -367,18 +361,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/plate/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/screen/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>identifier</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -403,10 +385,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -415,10 +393,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:1.1.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:reagent</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -427,22 +401,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:1.1.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>reagent:reagent1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:1.2.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.2.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -455,34 +417,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[well:well:1.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image4</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -503,18 +437,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.2.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.2.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image9</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -523,14 +445,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[plateAcquisition:plate1-1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plateAcquisition:plate1-2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:49:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -550,42 +464,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:2.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[well:well:2.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[well:well:2.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[well:well:2.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>reagent:reagent2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:2.1.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.1.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.2.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.2.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image11</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -602,34 +484,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:2.1.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.1.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.1.2.3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.1.2.4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.1.2.5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.2.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:2.2.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image15</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -662,18 +516,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"twoScreen"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -681,10 +527,6 @@
     <t>Reagent Set</t>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"6x6x1x8-swatch.tif-0"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -697,10 +539,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -709,30 +547,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -828,250 +642,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image18]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image19]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image20]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image21]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:18]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:19]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:20]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:21]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:18]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:19]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:20]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:21]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>reagent</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/reagent/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/DimensionOrder#</t>
   </si>
   <si>
     <t>pixelType:uint8</t>
@@ -1206,30 +778,6 @@
     <t>Plate:2</t>
   </si>
   <si>
-    <t>Well:1.1.1</t>
-  </si>
-  <si>
-    <t>Well:1.2.1</t>
-  </si>
-  <si>
-    <t>Well:1.1.2</t>
-  </si>
-  <si>
-    <t>Well:1.2.2</t>
-  </si>
-  <si>
-    <t>Well:2.1.1</t>
-  </si>
-  <si>
-    <t>Well:2.2.1</t>
-  </si>
-  <si>
-    <t>Well:2.1.2</t>
-  </si>
-  <si>
-    <t>Well:2.2.2</t>
-  </si>
-  <si>
     <t>WellSample:1.1.1.1</t>
   </si>
   <si>
@@ -1512,10 +1060,6 @@
     <t>Channel:21</t>
   </si>
   <si>
-    <t>[plateAcquisition:plate2-5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PlateAcquisition:Plate:2:ScreenAcquisition:5</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1531,8 +1075,491 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Plate Acquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.1.1</t>
+  </si>
+  <si>
+    <t>well:well1.1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.2.1</t>
+  </si>
+  <si>
+    <t>well:well1.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.1.2</t>
+  </si>
+  <si>
+    <t>well:well1.1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.2.2</t>
+  </si>
+  <si>
+    <t>well:well1.2.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well2.1.1</t>
+  </si>
+  <si>
+    <t>well:well2.1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well2.1.2</t>
+  </si>
+  <si>
+    <t>well:well2.1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well2.2.2</t>
+  </si>
+  <si>
+    <t>well:well2.2.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plate1.1</t>
+  </si>
+  <si>
+    <t>plateAcquisition:plate1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plate1.2</t>
+  </si>
+  <si>
+    <t>plateAcquisition:plate1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plate2.5</t>
+  </si>
+  <si>
+    <t>plateAcquisition:plate2.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Well1.1.1</t>
+  </si>
+  <si>
+    <t>Well1.2.1</t>
+  </si>
+  <si>
+    <t>Well1.1.2</t>
+  </si>
+  <si>
+    <t>Well1.2.2</t>
+  </si>
+  <si>
+    <t>Well2.1.1</t>
+  </si>
+  <si>
+    <t>Well2.2.1</t>
+  </si>
+  <si>
+    <t>Well2.1.2</t>
+  </si>
+  <si>
+    <t>Well2.2.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.1.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.1.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.1.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.1.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.3</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.4</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.5</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.2.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.1.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.1.2</t>
+  </si>
+  <si>
+    <t>well:well2.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.2.1.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.2.1.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.2.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.2.3</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.2.4</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.1.2.5</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.2.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellSample2.2.2.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.1.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.1.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.2.1.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.2.1.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.2.2</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.2.3</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.2.4</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.1.2.5</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.2.2.1</t>
+  </si>
+  <si>
+    <t>wellSample:wellsample2.2.2.2</t>
+  </si>
+  <si>
+    <t>reagentSet:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image0</t>
+  </si>
+  <si>
+    <t>pixels:image1</t>
+  </si>
+  <si>
+    <t>pixels:image2</t>
+  </si>
+  <si>
+    <t>pixels:image3</t>
+  </si>
+  <si>
+    <t>pixels:image4</t>
+  </si>
+  <si>
+    <t>pixels:image5</t>
+  </si>
+  <si>
+    <t>pixels:image6</t>
+  </si>
+  <si>
+    <t>pixels:image7</t>
+  </si>
+  <si>
+    <t>pixels:image8</t>
+  </si>
+  <si>
+    <t>pixels:image9</t>
+  </si>
+  <si>
+    <t>pixels:image10</t>
+  </si>
+  <si>
+    <t>pixels:image11</t>
+  </si>
+  <si>
+    <t>pixels:image12</t>
+  </si>
+  <si>
+    <t>pixels:image13</t>
+  </si>
+  <si>
+    <t>pixels:image14</t>
+  </si>
+  <si>
+    <t>pixels:image15</t>
+  </si>
+  <si>
+    <t>pixels:image16</t>
+  </si>
+  <si>
+    <t>pixels:image17</t>
+  </si>
+  <si>
+    <t>pixels:image18</t>
+  </si>
+  <si>
+    <t>pixels:image19</t>
+  </si>
+  <si>
+    <t>pixels:image20</t>
+  </si>
+  <si>
+    <t>pixels:image21</t>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+  </si>
+  <si>
+    <t>channel:channel10</t>
+  </si>
+  <si>
+    <t>bindata:bindata10</t>
+  </si>
+  <si>
+    <t>channel:channel11</t>
+  </si>
+  <si>
+    <t>bindata:bindata11</t>
+  </si>
+  <si>
+    <t>channel:channel12</t>
+  </si>
+  <si>
+    <t>bindata:bindata12</t>
+  </si>
+  <si>
+    <t>channel:channel13</t>
+  </si>
+  <si>
+    <t>bindata:bindata13</t>
+  </si>
+  <si>
+    <t>channel:channel14</t>
+  </si>
+  <si>
+    <t>bindata:bindata14</t>
+  </si>
+  <si>
+    <t>channel:channel15</t>
+  </si>
+  <si>
+    <t>bindata:bindata15</t>
+  </si>
+  <si>
+    <t>channel:channel16</t>
+  </si>
+  <si>
+    <t>bindata:bindata16</t>
+  </si>
+  <si>
+    <t>channel:channel17</t>
+  </si>
+  <si>
+    <t>bindata:bindata17</t>
+  </si>
+  <si>
+    <t>channel:channel18</t>
+  </si>
+  <si>
+    <t>bindata:bindata18</t>
+  </si>
+  <si>
+    <t>channel:channel19</t>
+  </si>
+  <si>
+    <t>bindata:bindata19</t>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+  </si>
+  <si>
+    <t>channel:channel20</t>
+  </si>
+  <si>
+    <t>bindata:bindata20</t>
+  </si>
+  <si>
+    <t>channel:channel21</t>
+  </si>
+  <si>
+    <t>bindata:bindata21</t>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+  </si>
+  <si>
+    <t>channel:channel4</t>
+  </si>
+  <si>
+    <t>channel:channel5</t>
+  </si>
+  <si>
+    <t>channel:channel6</t>
+  </si>
+  <si>
+    <t>channel:channel7</t>
+  </si>
+  <si>
+    <t>channel:channel8</t>
+  </si>
+  <si>
+    <t>channel:channel9</t>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
+  </si>
+  <si>
+    <t>bindata:bindata6</t>
+  </si>
+  <si>
+    <t>bindata:bindata7</t>
+  </si>
+  <si>
+    <t>bindata:bindata8</t>
+  </si>
+  <si>
+    <t>bindata:bindata9</t>
+  </si>
+  <si>
+    <t>well:well2.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/DimensionOrder#</t>
+  </si>
+  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/image/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/plate/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/screen/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/reagent/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/well/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/wellSample/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/plateAcquisition/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/reagentSet/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/pixels/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/channel/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/bindata/</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1971,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1960,148 +1987,213 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>284</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>282</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2116,62 +2208,62 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2189,108 +2281,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>376</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -2308,30 +2400,30 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>262</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>382</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2349,30 +2441,30 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>194</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2390,30 +2482,30 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>195</v>
+        <v>425</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>196</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2431,30 +2523,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>198</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2472,30 +2564,30 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>263</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>381</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2513,30 +2605,30 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2554,30 +2646,30 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>265</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>383</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2595,30 +2687,30 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>247</v>
+        <v>437</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>266</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>384</v>
+        <v>268</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2636,30 +2728,30 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>267</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2677,30 +2769,30 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>268</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2718,30 +2810,30 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>250</v>
+        <v>405</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>269</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -2759,30 +2851,30 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>251</v>
+        <v>407</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>270</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2800,30 +2892,30 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>252</v>
+        <v>409</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>271</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>389</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -2841,30 +2933,30 @@
         <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>395</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>390</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -2882,30 +2974,30 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>273</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -2923,30 +3015,30 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>397</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>392</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -2964,30 +3056,30 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>275</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -3005,30 +3097,30 @@
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>394</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -3046,30 +3138,30 @@
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>277</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -3087,30 +3179,30 @@
         <v>1</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>278</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>396</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -3128,30 +3220,30 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>260</v>
+        <v>427</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>279</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>397</v>
+        <v>281</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -3169,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>261</v>
+        <v>429</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>280</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3282,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -3198,21 +3290,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3220,270 +3312,270 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>399</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>425</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>400</v>
+        <v>284</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>401</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>403</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>404</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>437</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>405</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>406</v>
+        <v>290</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>407</v>
+        <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>405</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>408</v>
+        <v>292</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>407</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>409</v>
+        <v>293</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>409</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>410</v>
+        <v>294</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>411</v>
+        <v>295</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>412</v>
+        <v>296</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>414</v>
+        <v>298</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>415</v>
+        <v>299</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>416</v>
+        <v>300</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>427</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>418</v>
+        <v>302</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>429</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>419</v>
+        <v>303</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3508,45 +3600,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3567,7 +3659,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -3576,24 +3668,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3602,45 +3694,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3648,13 +3740,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3662,13 +3754,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>426</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -3676,13 +3768,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>440</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -3690,13 +3782,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -3704,13 +3796,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -3718,13 +3810,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>443</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -3732,13 +3824,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>444</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -3746,13 +3838,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>445</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3760,13 +3852,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>446</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -3774,13 +3866,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>406</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -3788,13 +3880,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>408</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -3802,13 +3894,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>271</v>
+        <v>410</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -3816,13 +3908,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -3830,13 +3922,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>273</v>
+        <v>414</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -3844,13 +3936,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -3858,13 +3950,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>418</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -3872,13 +3964,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -3886,13 +3978,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>422</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -3900,13 +3992,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>278</v>
+        <v>424</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -3914,13 +4006,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -3928,13 +4020,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1">
         <v>32</v>
@@ -3965,67 +4057,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>289</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4055,177 +4147,178 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>320</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>420</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>154</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>156</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4248,30 +4341,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4282,57 +4375,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4341,26 +4434,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4369,26 +4462,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>319</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -4397,50 +4490,50 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -4449,26 +4542,26 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -4477,26 +4570,26 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -4505,26 +4598,26 @@
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -4533,54 +4626,54 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>365</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -4589,15 +4682,15 @@
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +4708,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -4624,24 +4717,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4650,45 +4743,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4696,13 +4789,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -4710,13 +4803,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -4724,13 +4817,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -4738,13 +4831,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -4752,13 +4845,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -4766,13 +4859,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1">
         <v>11</v>
@@ -4780,13 +4873,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -4794,13 +4887,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1">
         <v>19</v>
@@ -4808,13 +4901,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -4822,13 +4915,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>355</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -4836,13 +4929,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -4850,13 +4943,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -4864,13 +4957,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -4878,13 +4971,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -4892,13 +4985,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -4906,13 +4999,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
@@ -4920,13 +5013,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1">
         <v>11</v>
@@ -4934,13 +5027,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E23" s="1">
         <v>15</v>
@@ -4948,13 +5041,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
         <v>19</v>
@@ -4962,13 +5055,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -4976,13 +5069,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1">
         <v>8</v>
@@ -5012,27 +5105,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>311</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5042,187 +5135,187 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>124</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>131</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>142</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>143</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>159</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="4" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5244,117 +5337,117 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>181</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5373,63 +5466,63 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5454,56 +5547,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5524,453 +5617,453 @@
     <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>382</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>235</v>
+        <v>395</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>237</v>
+        <v>397</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
+        <v>399</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/two-screens-two-plates-four-wells.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/two-screens-two-plates-four-wells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A72B4-0F9D-4495-8CFF-3AD707A635B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4764CF0-048A-4C9C-AC21-AD90A0C7E342}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="463">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>owl</t>
   </si>
   <si>
@@ -109,18 +106,9 @@
     <t>rdfs:comment</t>
   </si>
   <si>
-    <t>:well</t>
-  </si>
-  <si>
-    <t>:plateAcquisition</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Plate</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
@@ -130,12 +118,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>:Well</t>
-  </si>
-  <si>
-    <t>:PlateAcquisition</t>
-  </si>
-  <si>
     <t>Well</t>
   </si>
   <si>
@@ -154,30 +136,6 @@
     <t>column</t>
   </si>
   <si>
-    <t>:reagent</t>
-  </si>
-  <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:wellSample</t>
-  </si>
-  <si>
-    <t>:row</t>
-  </si>
-  <si>
-    <t>:column</t>
-  </si>
-  <si>
-    <t>:Reagent</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:WellSample</t>
-  </si>
-  <si>
     <t>Well Sample</t>
   </si>
   <si>
@@ -187,15 +145,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>:image</t>
-  </si>
-  <si>
-    <t>:index</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -208,15 +157,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -256,24 +196,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:pixcelType</t>
-  </si>
-  <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -286,24 +211,12 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
     <t>Reagent</t>
   </si>
   <si>
-    <t>:startTime</t>
-  </si>
-  <si>
-    <t>:endTime</t>
-  </si>
-  <si>
     <t>start time</t>
   </si>
   <si>
@@ -319,18 +232,6 @@
     <t>reagent set</t>
   </si>
   <si>
-    <t>:plate</t>
-  </si>
-  <si>
-    <t>:reagentSet</t>
-  </si>
-  <si>
-    <t>:Screen</t>
-  </si>
-  <si>
-    <t>:ReagentSet</t>
-  </si>
-  <si>
     <t>foaf</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -390,14 +291,6 @@
   </si>
   <si>
     <t>image:image0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:reagent</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Reagent</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -720,58 +613,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Plate:1</t>
   </si>
   <si>
@@ -1560,6 +1401,198 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/two-screens-two-plates-four-wells/bindata/</t>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PlateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:WellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:row</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:column</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:startTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:endTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Screen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ReagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixcelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1984,210 +2017,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2206,64 +2239,64 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2281,108 +2314,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>441</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>203</v>
+        <v>451</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>206</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>439</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
+        <v>444</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>207</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -2400,30 +2433,30 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2441,30 +2474,30 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2482,30 +2515,30 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2523,30 +2556,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2564,30 +2597,30 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2605,30 +2638,30 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2646,30 +2679,30 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2687,30 +2720,30 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2728,30 +2761,30 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2769,30 +2802,30 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2810,30 +2843,30 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -2851,30 +2884,30 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2892,30 +2925,30 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -2933,30 +2966,30 @@
         <v>1</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -2974,30 +3007,30 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -3015,30 +3048,30 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -3056,30 +3089,30 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -3097,30 +3130,30 @@
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -3138,30 +3171,30 @@
         <v>1</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -3179,30 +3212,30 @@
         <v>1</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -3220,30 +3253,30 @@
         <v>1</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -3261,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3283,28 +3316,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3312,270 +3345,270 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3600,45 +3633,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3660,7 +3693,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -3668,24 +3701,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3694,45 +3727,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>460</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3740,13 +3773,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3754,13 +3787,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -3768,13 +3801,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -3782,13 +3815,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -3796,13 +3829,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -3810,13 +3843,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -3824,13 +3857,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -3838,13 +3871,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3852,13 +3885,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -3866,13 +3899,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -3880,13 +3913,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -3894,13 +3927,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -3908,13 +3941,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -3922,13 +3955,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -3936,13 +3969,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -3950,13 +3983,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -3964,13 +3997,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -3978,13 +4011,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -3992,13 +4025,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -4006,13 +4039,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -4020,13 +4053,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1">
         <v>32</v>
@@ -4057,67 +4090,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4138,181 +4171,181 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>417</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>416</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>418</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4341,30 +4374,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4375,57 +4408,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4434,26 +4467,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -4462,26 +4495,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -4490,50 +4523,50 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -4542,26 +4575,26 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -4570,26 +4603,26 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -4598,26 +4631,26 @@
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -4626,54 +4659,54 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -4682,15 +4715,15 @@
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4717,24 +4750,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4743,45 +4776,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>427</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -4789,13 +4822,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -4803,13 +4836,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -4817,13 +4850,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -4831,13 +4864,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -4845,13 +4878,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -4859,13 +4892,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1">
         <v>11</v>
@@ -4873,13 +4906,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -4887,13 +4920,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1">
         <v>19</v>
@@ -4901,13 +4934,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -4915,13 +4948,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -4929,13 +4962,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -4943,13 +4976,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -4957,13 +4990,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -4971,13 +5004,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -4985,13 +5018,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -4999,13 +5032,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1">
         <v>7</v>
@@ -5013,13 +5046,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1">
         <v>11</v>
@@ -5027,13 +5060,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1">
         <v>15</v>
@@ -5041,13 +5074,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1">
         <v>19</v>
@@ -5055,13 +5088,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -5069,13 +5102,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1">
         <v>8</v>
@@ -5105,27 +5138,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5135,187 +5168,187 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>87</v>
+        <v>431</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="4" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5335,7 +5368,7 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5343,111 +5376,111 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>433</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>432</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>416</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5473,56 +5506,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5547,56 +5580,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>437</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5614,9 +5647,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5624,446 +5657,446 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>438</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>428</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>439</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
